--- a/Ibero CDMX Time on Task F24 (1).xlsx
+++ b/Ibero CDMX Time on Task F24 (1).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="43" documentId="8_{AEF08C8C-9A0D-4915-B5B4-23341A6625A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09AAB54E-D0F5-44EF-B54E-50DB8A81E760}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DF64139E-A767-4C9A-8C88-CC083C8E4CF4}"/>
+    <workbookView minimized="1" xWindow="2720" yWindow="2720" windowWidth="14380" windowHeight="7270" xr2:uid="{DF64139E-A767-4C9A-8C88-CC083C8E4CF4}"/>
   </bookViews>
   <sheets>
     <sheet name="F24_CLA+ MX_Time on Task_Ibero " sheetId="1" r:id="rId1"/>
@@ -3204,7 +3204,7 @@
   <dimension ref="A1:F746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
